--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H2">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N2">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q2">
-        <v>34.72306746451646</v>
+        <v>37.6828311417971</v>
       </c>
       <c r="R2">
-        <v>34.72306746451646</v>
+        <v>339.145480276174</v>
       </c>
       <c r="S2">
-        <v>0.0132041670559741</v>
+        <v>0.01328732644620441</v>
       </c>
       <c r="T2">
-        <v>0.0132041670559741</v>
+        <v>0.01328732644620442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H3">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N3">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q3">
-        <v>397.9891396766049</v>
+        <v>405.6894507398553</v>
       </c>
       <c r="R3">
-        <v>397.9891396766049</v>
+        <v>3651.205056658698</v>
       </c>
       <c r="S3">
-        <v>0.15134363034382</v>
+        <v>0.1430499780517485</v>
       </c>
       <c r="T3">
-        <v>0.15134363034382</v>
+        <v>0.1430499780517485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H4">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N4">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q4">
-        <v>585.8674970758041</v>
+        <v>598.9913479751226</v>
       </c>
       <c r="R4">
-        <v>585.8674970758041</v>
+        <v>5390.922131776104</v>
       </c>
       <c r="S4">
-        <v>0.2227882750266708</v>
+        <v>0.2112100746636711</v>
       </c>
       <c r="T4">
-        <v>0.2227882750266708</v>
+        <v>0.2112100746636711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H5">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N5">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q5">
-        <v>838.7565694856152</v>
+        <v>887.8930909283598</v>
       </c>
       <c r="R5">
-        <v>838.7565694856152</v>
+        <v>7991.037818355238</v>
       </c>
       <c r="S5">
-        <v>0.3189545933435015</v>
+        <v>0.3130795906523264</v>
       </c>
       <c r="T5">
-        <v>0.3189545933435015</v>
+        <v>0.3130795906523264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H6">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I6">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J6">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N6">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q6">
-        <v>187.9762892635323</v>
+        <v>212.3272778147375</v>
       </c>
       <c r="R6">
-        <v>187.9762892635323</v>
+        <v>1910.945500332638</v>
       </c>
       <c r="S6">
-        <v>0.0714818853067697</v>
+        <v>0.07486862765544869</v>
       </c>
       <c r="T6">
-        <v>0.0714818853067697</v>
+        <v>0.07486862765544869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H7">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N7">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q7">
-        <v>1.513712877263402</v>
+        <v>1.745155788520444</v>
       </c>
       <c r="R7">
-        <v>1.513712877263402</v>
+        <v>15.706402096684</v>
       </c>
       <c r="S7">
-        <v>0.0005756207376145626</v>
+        <v>0.0006153586118383289</v>
       </c>
       <c r="T7">
-        <v>0.0005756207376145626</v>
+        <v>0.0006153586118383289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H8">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N8">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q8">
-        <v>17.34988668138536</v>
+        <v>18.78816617138533</v>
       </c>
       <c r="R8">
-        <v>17.34988668138536</v>
+        <v>169.093495542468</v>
       </c>
       <c r="S8">
-        <v>0.006597654495166377</v>
+        <v>0.006624886975857565</v>
       </c>
       <c r="T8">
-        <v>0.006597654495166377</v>
+        <v>0.006624886975857563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H9">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N9">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q9">
-        <v>25.54023130588854</v>
+        <v>27.74030470956267</v>
       </c>
       <c r="R9">
-        <v>25.54023130588854</v>
+        <v>249.662742386064</v>
       </c>
       <c r="S9">
-        <v>0.0097122030234165</v>
+        <v>0.00978149659207274</v>
       </c>
       <c r="T9">
-        <v>0.0097122030234165</v>
+        <v>0.009781496592072739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H10">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J10">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N10">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q10">
-        <v>36.56464456710496</v>
+        <v>41.11983415975999</v>
       </c>
       <c r="R10">
-        <v>36.56464456710496</v>
+        <v>370.07850743784</v>
       </c>
       <c r="S10">
-        <v>0.01390446496985756</v>
+        <v>0.01449924656240842</v>
       </c>
       <c r="T10">
-        <v>0.01390446496985756</v>
+        <v>0.01449924656240842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H11">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J11">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N11">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q11">
-        <v>8.194613853432532</v>
+        <v>9.833236163834222</v>
       </c>
       <c r="R11">
-        <v>8.194613853432532</v>
+        <v>88.49912547450799</v>
       </c>
       <c r="S11">
-        <v>0.003116171991155322</v>
+        <v>0.003467293060859361</v>
       </c>
       <c r="T11">
-        <v>0.003116171991155322</v>
+        <v>0.00346729306085936</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H12">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N12">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q12">
-        <v>8.407463552461968</v>
+        <v>0.016646948318</v>
       </c>
       <c r="R12">
-        <v>8.407463552461968</v>
+        <v>0.149822534862</v>
       </c>
       <c r="S12">
-        <v>0.003197112506755522</v>
+        <v>5.869873094248903E-06</v>
       </c>
       <c r="T12">
-        <v>0.003197112506755522</v>
+        <v>5.869873094248903E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H13">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I13">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J13">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N13">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q13">
-        <v>96.36473475524916</v>
+        <v>0.179219318586</v>
       </c>
       <c r="R13">
-        <v>96.36473475524916</v>
+        <v>1.612973867274</v>
       </c>
       <c r="S13">
-        <v>0.03664469037227851</v>
+        <v>6.319444477400604E-05</v>
       </c>
       <c r="T13">
-        <v>0.03664469037227851</v>
+        <v>6.319444477400603E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H14">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I14">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J14">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N14">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q14">
-        <v>141.855544106824</v>
+        <v>0.264613292328</v>
       </c>
       <c r="R14">
-        <v>141.855544106824</v>
+        <v>2.381519630952</v>
       </c>
       <c r="S14">
-        <v>0.0539435147576381</v>
+        <v>9.33051761407377E-05</v>
       </c>
       <c r="T14">
-        <v>0.0539435147576381</v>
+        <v>9.330517614073769E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H15">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I15">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J15">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N15">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q15">
-        <v>203.0873365247641</v>
+        <v>0.39223991268</v>
       </c>
       <c r="R15">
-        <v>203.0873365247641</v>
+        <v>3.530159214119999</v>
       </c>
       <c r="S15">
-        <v>0.07722817464690139</v>
+        <v>0.0001383075423764808</v>
       </c>
       <c r="T15">
-        <v>0.07722817464690139</v>
+        <v>0.0001383075423764808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007854</v>
+      </c>
+      <c r="H16">
+        <v>0.023562</v>
+      </c>
+      <c r="I16">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J16">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N16">
+        <v>35.828387</v>
+      </c>
+      <c r="O16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q16">
+        <v>0.093798717166</v>
+      </c>
+      <c r="R16">
+        <v>0.8441884544939999</v>
+      </c>
+      <c r="S16">
+        <v>3.307432423349499E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.307432423349499E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H17">
+        <v>14.767745</v>
+      </c>
+      <c r="I17">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J17">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.119550333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.358651</v>
+      </c>
+      <c r="O17">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="P17">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="Q17">
+        <v>10.43365961244389</v>
+      </c>
+      <c r="R17">
+        <v>93.90293651199499</v>
+      </c>
+      <c r="S17">
+        <v>0.003679008107895288</v>
+      </c>
+      <c r="T17">
+        <v>0.003679008107895287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H18">
+        <v>14.767745</v>
+      </c>
+      <c r="I18">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J18">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>22.818859</v>
+      </c>
+      <c r="N18">
+        <v>68.456577</v>
+      </c>
+      <c r="O18">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="P18">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="Q18">
+        <v>112.3276969676517</v>
+      </c>
+      <c r="R18">
+        <v>1010.949272708865</v>
+      </c>
+      <c r="S18">
+        <v>0.039607819617991</v>
+      </c>
+      <c r="T18">
+        <v>0.03960781961799099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H19">
+        <v>14.767745</v>
+      </c>
+      <c r="I19">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J19">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.691532</v>
+      </c>
+      <c r="N19">
+        <v>101.074596</v>
+      </c>
+      <c r="O19">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="P19">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="Q19">
+        <v>165.8493177451134</v>
+      </c>
+      <c r="R19">
+        <v>1492.64385970602</v>
+      </c>
+      <c r="S19">
+        <v>0.05848005468239107</v>
+      </c>
+      <c r="T19">
+        <v>0.05848005468239106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="H16">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="I16">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="J16">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="N16">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="O16">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="P16">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="Q16">
-        <v>45.51452150145468</v>
-      </c>
-      <c r="R16">
-        <v>45.51452150145468</v>
-      </c>
-      <c r="S16">
-        <v>0.01730784142248021</v>
-      </c>
-      <c r="T16">
-        <v>0.01730784142248021</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H20">
+        <v>14.767745</v>
+      </c>
+      <c r="I20">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J20">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>49.94141999999999</v>
+      </c>
+      <c r="N20">
+        <v>149.82426</v>
+      </c>
+      <c r="O20">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="P20">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="Q20">
+        <v>245.8407184993</v>
+      </c>
+      <c r="R20">
+        <v>2212.5664664937</v>
+      </c>
+      <c r="S20">
+        <v>0.08668578717394801</v>
+      </c>
+      <c r="T20">
+        <v>0.08668578717394798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H21">
+        <v>14.767745</v>
+      </c>
+      <c r="I21">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J21">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N21">
+        <v>35.828387</v>
+      </c>
+      <c r="O21">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P21">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q21">
+        <v>58.78938699747945</v>
+      </c>
+      <c r="R21">
+        <v>529.104482977315</v>
+      </c>
+      <c r="S21">
+        <v>0.02072969978472008</v>
+      </c>
+      <c r="T21">
+        <v>0.02072969978472008</v>
       </c>
     </row>
   </sheetData>
